--- a/Benchmarks.xlsx
+++ b/Benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigve Borgmo\Master\dynamic-factor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FDB0D2-2AFC-4EF0-ABFF-406C80F04DDB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876DE900-D7C8-4525-A87A-D2BBF9A74788}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34578,7 +34578,7 @@
   <dimension ref="A1:U103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -34649,7 +34649,9 @@
       <c r="F2" s="15">
         <v>40</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="15">
+        <v>40</v>
+      </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -35337,7 +35339,7 @@
       </c>
       <c r="C40" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="1"/>
       <c r="G40" s="7"/>
@@ -35690,7 +35692,7 @@
         <v>67</v>
       </c>
       <c r="C66" s="9">
-        <f t="shared" ref="C66:C103" si="1">COUNTIF($F$2:$AJ$100, A66)</f>
+        <f t="shared" ref="C66:C101" si="1">COUNTIF($F$2:$AJ$100, A66)</f>
         <v>0</v>
       </c>
     </row>

--- a/Benchmarks.xlsx
+++ b/Benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigve Borgmo\Master\dynamic-factor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876DE900-D7C8-4525-A87A-D2BBF9A74788}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9244F7-FD16-43DA-945A-81BBC2C27DE0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
